--- a/data/trans_orig/POLIMEDICACION-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Edad-trans_orig.xlsx
@@ -740,97 +740,97 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,51%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>0,55%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>62496</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>99,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62149</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -923,12 +923,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>124977</t>
+          <t>—</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>—</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1083,12 +1083,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1098,12 +1098,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1196,12 +1196,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>68831</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>231470</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2857</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>226511</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6749,12 +6749,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -6764,12 +6764,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -6862,12 +6862,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>169235</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -6877,12 +6877,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">

--- a/data/trans_orig/POLIMEDICACION-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en País Vasco</t>
+          <t>Polimedicación (5 o más medicamentos) en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en Andalucia</t>
+          <t>Polimedicación (5 o más medicamentos) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en C.Valenciana</t>
+          <t>Polimedicación (5 o más medicamentos) en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/POLIMEDICACION-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Edad-trans_orig.xlsx
@@ -848,7 +848,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62816</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125309</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>115</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>662</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>115</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>653</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1226,27 +1226,27 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>62383</t>
+          <t>67933</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>61907</t>
+          <t>67386</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,84%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>99,08%</t>
+          <t>99,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
@@ -1261,17 +1261,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>131547</t>
+          <t>142916</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>131140</t>
+          <t>142378</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,54%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69165</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>62483</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>131647</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>594</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>174</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1816</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>762</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3252</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2401</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3983</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94143</t>
+          <t>103366</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92879</t>
+          <t>102303</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94572</t>
+          <t>103786</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,42%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,08%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,87%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95657</t>
+          <t>109214</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>94253</t>
+          <t>108003</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>96616</t>
+          <t>109953</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,09%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>189799</t>
+          <t>212581</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>188217</t>
+          <t>211082</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>190826</t>
+          <t>213547</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94695</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97505</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192200</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3532</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2939</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1693</t>
+          <t>1458</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>4852</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>3071</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>6733</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>137501</t>
+          <t>142810</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>135882</t>
+          <t>141204</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>138428</t>
+          <t>143718</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,47%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,29%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>135036</t>
+          <t>149944</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>132864</t>
+          <t>148444</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>136282</t>
+          <t>151086</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>272538</t>
+          <t>292753</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>270330</t>
+          <t>290588</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>274319</t>
+          <t>294241</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>98,25%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>98,96%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>139414</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>137975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>277390</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2107,32 +2107,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9324</t>
+          <t>8063</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6653</t>
+          <t>6139</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12668</t>
+          <t>10972</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,32 +2142,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6474</t>
+          <t>6259</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4551</t>
+          <t>4435</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>9174</t>
+          <t>8804</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,32 +2177,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>14322</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>12505</t>
+          <t>11325</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>19804</t>
+          <t>17798</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -2220,32 +2220,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>117530</t>
+          <t>121519</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>114186</t>
+          <t>118610</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>120201</t>
+          <t>123443</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,65%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,01%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,32 +2255,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>140867</t>
+          <t>145656</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>138167</t>
+          <t>143111</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>142790</t>
+          <t>147480</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>93,77%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,32 +2290,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>258396</t>
+          <t>267176</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>254390</t>
+          <t>263700</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>261689</t>
+          <t>270173</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,24%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>95,98%</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2333,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126854</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2368,17 +2368,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>147341</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2403,17 +2403,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>274194</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2450,32 +2450,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11494</t>
+          <t>12354</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8865</t>
+          <t>9598</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14695</t>
+          <t>15520</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2485,32 +2485,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10209</t>
+          <t>10485</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7771</t>
+          <t>8105</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13306</t>
+          <t>13369</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2520,32 +2520,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>21704</t>
+          <t>22839</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>18495</t>
+          <t>19411</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>26353</t>
+          <t>26902</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>12,21%</t>
         </is>
       </c>
     </row>
@@ -2563,32 +2563,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>96110</t>
+          <t>92112</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>92909</t>
+          <t>88946</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>98739</t>
+          <t>94868</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,34%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,32 +2598,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>104699</t>
+          <t>105295</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>101602</t>
+          <t>102411</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>107137</t>
+          <t>107675</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,42%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,32 +2633,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>200808</t>
+          <t>197407</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>196159</t>
+          <t>193344</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>204017</t>
+          <t>200835</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>90,25%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>91,19%</t>
         </is>
       </c>
     </row>
@@ -2676,17 +2676,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107604</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2711,17 +2711,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>114908</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2746,17 +2746,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222512</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2793,32 +2793,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>23107</t>
+          <t>19393</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19360</t>
+          <t>16455</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27524</t>
+          <t>23042</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>20,09%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2828,32 +2828,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>29463</t>
+          <t>26997</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>25604</t>
+          <t>23064</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>33652</t>
+          <t>30892</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2863,32 +2863,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>52571</t>
+          <t>46390</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>47465</t>
+          <t>41776</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>58639</t>
+          <t>51601</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>23,29%</t>
         </is>
       </c>
     </row>
@@ -2906,32 +2906,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>73248</t>
+          <t>69830</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>68831</t>
+          <t>66181</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>76995</t>
+          <t>72768</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>76,02%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>71,44%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>79,91%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2941,32 +2941,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>104468</t>
+          <t>105315</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>100279</t>
+          <t>101420</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>108327</t>
+          <t>109248</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>79,6%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>74,87%</t>
+          <t>76,65%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>80,88%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2976,32 +2976,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>177715</t>
+          <t>175145</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>171647</t>
+          <t>169934</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>182821</t>
+          <t>179759</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>77,17%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>76,71%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>79,39%</t>
+          <t>81,14%</t>
         </is>
       </c>
     </row>
@@ -3019,17 +3019,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96355</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3054,17 +3054,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133931</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3089,17 +3089,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>230286</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3136,32 +3136,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>46391</t>
+          <t>42371</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>40936</t>
+          <t>37199</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>52926</t>
+          <t>47391</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3171,32 +3171,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>51033</t>
+          <t>47957</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>45534</t>
+          <t>42629</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>57509</t>
+          <t>53823</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>97424</t>
+          <t>90328</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>89707</t>
+          <t>82367</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>106304</t>
+          <t>97875</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -3249,32 +3249,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>650512</t>
+          <t>681501</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>643977</t>
+          <t>676481</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>655967</t>
+          <t>686673</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>94,86%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3284,32 +3284,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>705602</t>
+          <t>749599</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>699126</t>
+          <t>743733</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>711101</t>
+          <t>754927</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3319,32 +3319,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1356114</t>
+          <t>1431101</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1347234</t>
+          <t>1423554</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1363831</t>
+          <t>1439062</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>94,59%</t>
         </is>
       </c>
     </row>
@@ -3362,17 +3362,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>696903</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3397,17 +3397,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756635</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3432,17 +3432,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1453538</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>8785</t>
+          <t>7411</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>8885</t>
+          <t>7981</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,9%</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>175568</t>
+          <t>176942</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>411704</t>
+          <t>412608</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>9106</t>
+          <t>8986</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>839</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>8474</t>
+          <t>8270</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4160,7 +4160,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>305322</t>
+          <t>305442</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>313784</t>
+          <t>314428</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,1%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,8%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>535322</t>
+          <t>535526</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542964</t>
+          <t>542957</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,48%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>1101</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10817</t>
+          <t>11270</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3469</t>
+          <t>3344</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11367</t>
+          <t>12335</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6082</t>
+          <t>6798</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19364</t>
+          <t>19820</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>299952</t>
+          <t>299499</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>309697</t>
+          <t>309668</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,66%</t>
+          <t>99,65%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>311246</t>
+          <t>310278</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>319144</t>
+          <t>319269</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,92%</t>
+          <t>98,96%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>614017</t>
+          <t>613561</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>627299</t>
+          <t>626583</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>98,93%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2803</t>
+          <t>2942</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27605</t>
+          <t>27142</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19856</t>
+          <t>20505</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48315</t>
+          <t>50159</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>11,94%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>20809</t>
+          <t>18796</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>62836</t>
+          <t>65010</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>599559</t>
+          <t>600022</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>624361</t>
+          <t>624222</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>99,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>356487</t>
+          <t>354643</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>384946</t>
+          <t>384297</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
+          <t>87,61%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>969130</t>
+          <t>966956</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1011157</t>
+          <t>1013170</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4954,12 +4954,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>98,18%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9816</t>
+          <t>9961</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24241</t>
+          <t>24771</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>34151</t>
+          <t>34259</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52428</t>
+          <t>52539</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>47220</t>
+          <t>47857</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>70986</t>
+          <t>71763</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>10,91%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>314888</t>
+          <t>314358</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>329313</t>
+          <t>329168</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>97,06%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>266466</t>
+          <t>266355</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>284743</t>
+          <t>284635</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,56%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>89,26%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>587038</t>
+          <t>586261</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>610804</t>
+          <t>610167</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>89,09%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,82%</t>
+          <t>92,73%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13863</t>
+          <t>13420</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>27511</t>
+          <t>26139</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17591</t>
+          <t>12820</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>95827</t>
+          <t>95701</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>29192</t>
+          <t>26210</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>104156</t>
+          <t>105378</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>15,95%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>180573</t>
+          <t>181945</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>194221</t>
+          <t>194664</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,34%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>356815</t>
+          <t>356941</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>435051</t>
+          <t>439822</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>78,83%</t>
+          <t>78,86%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>96,11%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>556571</t>
+          <t>555349</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>631535</t>
+          <t>634517</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>84,05%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>96,03%</t>
         </is>
       </c>
     </row>
@@ -5785,12 +5785,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>18579</t>
+          <t>17872</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32335</t>
+          <t>32539</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>21,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>63307</t>
+          <t>63051</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>84503</t>
+          <t>84361</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5855,12 +5855,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>85783</t>
+          <t>85086</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>110303</t>
+          <t>110788</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5870,12 +5870,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>28,75%</t>
         </is>
       </c>
     </row>
@@ -5898,12 +5898,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>119440</t>
+          <t>119236</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>133196</t>
+          <t>133903</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>78,7%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>87,76%</t>
+          <t>88,22%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>149101</t>
+          <t>149243</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>170297</t>
+          <t>170553</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>63,83%</t>
+          <t>63,89%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>72,9%</t>
+          <t>73,01%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5968,12 +5968,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>275076</t>
+          <t>274591</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>299596</t>
+          <t>300293</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5983,12 +5983,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,74%</t>
+          <t>77,92%</t>
         </is>
       </c>
     </row>
@@ -6128,12 +6128,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>51220</t>
+          <t>53773</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>95470</t>
+          <t>97502</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6143,12 +6143,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6163,12 +6163,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>154503</t>
+          <t>142543</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>241288</t>
+          <t>238249</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6178,12 +6178,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6198,12 +6198,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>221513</t>
+          <t>226505</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>329308</t>
+          <t>325252</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6213,12 +6213,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>7,5%</t>
         </is>
       </c>
     </row>
@@ -6241,12 +6241,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2007055</t>
+          <t>2005023</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2051305</t>
+          <t>2048752</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6256,12 +6256,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,56%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6276,12 +6276,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1990048</t>
+          <t>1993087</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2076833</t>
+          <t>2088793</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6291,12 +6291,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>89,19%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6311,12 +6311,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4004553</t>
+          <t>4008609</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4112348</t>
+          <t>4107356</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6326,12 +6326,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>92,5%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,77%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/POLIMEDICACION-Edad-trans_orig.xlsx
+++ b/data/trans_orig/POLIMEDICACION-Edad-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Polimedicación (5 o más medicamentos) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -765,72 +765,72 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9255</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>10171</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -843,12 +843,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -878,72 +878,72 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>217623</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>210400</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
+          <t>99,07%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>95,79%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>211</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>458888</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>450749</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
+          <t>99,56%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>97,79%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76881</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>143123</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1108,72 +1108,72 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>2967</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>867</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>8099</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>2967</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>877</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>8576</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -1221,72 +1221,72 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>246</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67933</t>
+          <t>280486</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>67386</t>
+          <t>275354</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>282586</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,69%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>763</t>
+          <t>399</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>142916</t>
+          <t>542459</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>142378</t>
+          <t>536850</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>544549</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,92%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>98,43%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,84%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74983</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>68048</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>764</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143031</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>11656</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1501</t>
+          <t>8025</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>4222</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2712</t>
+          <t>14314</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2094</t>
+          <t>13036</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>7704</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>21643</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,92%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>309</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>103366</t>
+          <t>363306</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>102303</t>
+          <t>356662</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103786</t>
+          <t>367138</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,43%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,41%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,83%</t>
+          <t>99,68%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109214</t>
+          <t>365360</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>108003</t>
+          <t>359071</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109953</t>
+          <t>369163</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>97,55%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,31%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1135</t>
+          <t>791</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>212581</t>
+          <t>728667</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>211082</t>
+          <t>720060</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>213547</t>
+          <t>733999</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,02%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,33%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,47%</t>
+          <t>98,96%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>103960</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>493</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>110715</t>
+          <t>373385</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1148</t>
+          <t>806</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>214675</t>
+          <t>741703</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>13805</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1060</t>
+          <t>7602</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3574</t>
+          <t>23711</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>26340</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1458</t>
+          <t>19291</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>34721</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>4568</t>
+          <t>40145</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>30265</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>6733</t>
+          <t>51800</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>5,99%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>142810</t>
+          <t>410136</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>141204</t>
+          <t>400230</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>143718</t>
+          <t>416339</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>620</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>149944</t>
+          <t>414952</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>148444</t>
+          <t>406571</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>151086</t>
+          <t>422001</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,04%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>997</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>292753</t>
+          <t>825089</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>290588</t>
+          <t>813434</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>294241</t>
+          <t>834969</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>98,46%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>96,5%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>803</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144778</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152544</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1615</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>297321</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,107 +2102,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8063</t>
+          <t>16328</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6139</t>
+          <t>10186</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10972</t>
+          <t>25637</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6259</t>
+          <t>48877</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4435</t>
+          <t>39387</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>8804</t>
+          <t>60024</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>10,93%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>95</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>14322</t>
+          <t>65204</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>11325</t>
+          <t>53372</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>17798</t>
+          <t>79913</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>8,95%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>10,97%</t>
         </is>
       </c>
     </row>
@@ -2215,107 +2215,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>379</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>121519</t>
+          <t>351715</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>118610</t>
+          <t>342406</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>123443</t>
+          <t>357857</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,78%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>93,03%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>823</t>
+          <t>490</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>145656</t>
+          <t>311489</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>143111</t>
+          <t>300342</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>147480</t>
+          <t>320979</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>95,88%</t>
+          <t>86,44%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1510</t>
+          <t>869</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>267176</t>
+          <t>663204</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>263700</t>
+          <t>648495</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>270173</t>
+          <t>675036</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>91,05%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>93,68%</t>
+          <t>89,03%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>92,67%</t>
         </is>
       </c>
     </row>
@@ -2328,22 +2328,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>733</t>
+          <t>398</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129582</t>
+          <t>368043</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>151915</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2398,22 +2398,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t>964</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281498</t>
+          <t>728408</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2445,107 +2445,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12354</t>
+          <t>20203</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9598</t>
+          <t>13850</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15520</t>
+          <t>27271</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>95</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>10485</t>
+          <t>54911</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8105</t>
+          <t>45191</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>13369</t>
+          <t>64538</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>126</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>22839</t>
+          <t>75113</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>19411</t>
+          <t>63888</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>26902</t>
+          <t>88921</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>12,74%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>17,74%</t>
         </is>
       </c>
     </row>
@@ -2558,107 +2558,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>577</t>
+          <t>286</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>92112</t>
+          <t>211070</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>88946</t>
+          <t>204002</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>94868</t>
+          <t>217423</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>91,26%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>85,14%</t>
+          <t>88,21%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>641</t>
+          <t>387</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>105295</t>
+          <t>215121</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>102411</t>
+          <t>205494</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>107675</t>
+          <t>224841</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>79,66%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>76,1%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>83,26%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>673</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>197407</t>
+          <t>426191</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>193344</t>
+          <t>412383</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>200835</t>
+          <t>437416</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>85,02%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>82,26%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>87,26%</t>
         </is>
       </c>
     </row>
@@ -2671,22 +2671,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>317</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104466</t>
+          <t>231273</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2706,22 +2706,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115780</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2741,22 +2741,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>799</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220246</t>
+          <t>501304</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2788,107 +2788,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>19393</t>
+          <t>28335</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>16455</t>
+          <t>20631</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>23042</t>
+          <t>37177</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>25,83%</t>
+          <t>22,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26997</t>
+          <t>80551</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>23064</t>
+          <t>69276</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>30892</t>
+          <t>92517</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>182</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>46390</t>
+          <t>108886</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>41776</t>
+          <t>94290</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>51601</t>
+          <t>122596</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>18,86%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>29,04%</t>
         </is>
       </c>
     </row>
@@ -2901,107 +2901,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>69830</t>
+          <t>137246</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>66181</t>
+          <t>128404</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>72768</t>
+          <t>144950</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>74,17%</t>
+          <t>77,55%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>638</t>
+          <t>301</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>105315</t>
+          <t>176056</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>101420</t>
+          <t>164090</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>109248</t>
+          <t>187331</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>79,6%</t>
+          <t>68,61%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>76,65%</t>
+          <t>63,95%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>82,57%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>490</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>175145</t>
+          <t>313302</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>169934</t>
+          <t>299592</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>179759</t>
+          <t>327898</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>79,06%</t>
+          <t>74,21%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>76,71%</t>
+          <t>70,96%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>81,14%</t>
+          <t>77,67%</t>
         </is>
       </c>
     </row>
@@ -3014,22 +3014,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89223</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3049,22 +3049,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>441</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>132312</t>
+          <t>256607</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3084,22 +3084,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>672</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>221535</t>
+          <t>422188</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3131,107 +3131,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>42371</t>
+          <t>83682</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>37199</t>
+          <t>68499</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>47391</t>
+          <t>100327</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>366</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>47957</t>
+          <t>223703</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>42629</t>
+          <t>201057</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>53823</t>
+          <t>245383</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>11,13%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>475</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>90328</t>
+          <t>307385</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>82367</t>
+          <t>279926</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>97875</t>
+          <t>335473</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>7,87%</t>
         </is>
       </c>
     </row>
@@ -3244,107 +3244,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>1787</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>681501</t>
+          <t>1976713</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>676481</t>
+          <t>1960068</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>686673</t>
+          <t>1991896</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>94,86%</t>
+          <t>96,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4181</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>749599</t>
+          <t>1981087</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>743733</t>
+          <t>1959407</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>754927</t>
+          <t>2003733</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>88,87%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8006</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1431101</t>
+          <t>3957800</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1423554</t>
+          <t>3929712</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1439062</t>
+          <t>3985259</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>92,79%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>92,13%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,59%</t>
+          <t>93,44%</t>
         </is>
       </c>
     </row>
@@ -3357,22 +3357,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4078</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>723872</t>
+          <t>2060395</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3392,22 +3392,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>797556</t>
+          <t>2204790</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3427,22 +3427,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8553</t>
+          <t>4905</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521429</t>
+          <t>4265185</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Polimedicación (5 o más medicamentos) en C.Valenciana (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2962</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>7411</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2708</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>4,02%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>7981</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,8%</t>
         </is>
       </c>
     </row>
@@ -3830,102 +3830,102 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>270</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>169324</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>167209</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>170171</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>99,5%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>98,26%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>170442</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="M5" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="P5" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>182732</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>176942</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>184353</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>99,12%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>95,98%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
-        </is>
-      </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>540</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>418968</t>
+          <t>339766</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>412608</t>
+          <t>337905</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>99,61%</t>
+          <t>99,75%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>99,2%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>170171</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>270</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>170442</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>542</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>340613</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4060,107 +4060,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>2383</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>602</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8986</t>
+          <t>5801</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3039</t>
+          <t>3283</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>839</t>
+          <t>1423</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>8270</t>
+          <t>6985</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>287</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>181313</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>178842</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>99,51%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>98,15%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>311</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>311389</t>
+          <t>209095</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>305442</t>
+          <t>205677</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>210876</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,03%</t>
+          <t>98,87%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,26%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>99,72%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>598</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>540757</t>
+          <t>390407</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>535526</t>
+          <t>386705</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542957</t>
+          <t>392267</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,48%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,85%</t>
+          <t>99,64%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>289</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>182213</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>315</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>211478</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>604</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>393690</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4403,37 +4403,37 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4803</t>
+          <t>1578</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>321</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11270</t>
+          <t>5499</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4443,67 +4443,67 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6558</t>
+          <t>7252</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3344</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12335</t>
+          <t>13227</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>11361</t>
+          <t>8831</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6798</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>19820</t>
+          <t>15110</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>389</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>305966</t>
+          <t>246735</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>299499</t>
+          <t>242814</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>309668</t>
+          <t>247992</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>97,79%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,65%</t>
+          <t>99,87%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>395</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>316055</t>
+          <t>241399</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>310278</t>
+          <t>235424</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>319269</t>
+          <t>245039</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>791</t>
+          <t>784</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>622020</t>
+          <t>488133</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>613561</t>
+          <t>481854</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>626583</t>
+          <t>492275</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>96,96%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,93%</t>
+          <t>99,06%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>392</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>248313</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>406</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>322613</t>
+          <t>248651</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>806</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>633381</t>
+          <t>496964</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13528</t>
+          <t>3862</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27142</t>
+          <t>8233</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28697</t>
+          <t>6009</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20505</t>
+          <t>2827</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>50159</t>
+          <t>10691</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>42224</t>
+          <t>9871</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>18796</t>
+          <t>5345</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>65010</t>
+          <t>16342</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>2,84%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>479</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>613636</t>
+          <t>293145</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>600022</t>
+          <t>288774</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>624222</t>
+          <t>295700</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>98,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,67%</t>
+          <t>97,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,53%</t>
+          <t>99,56%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>620</t>
+          <t>447</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>376105</t>
+          <t>272966</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>354643</t>
+          <t>268284</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>384297</t>
+          <t>276148</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>97,85%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>997</t>
+          <t>926</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>989742</t>
+          <t>566112</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>966956</t>
+          <t>559641</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1013170</t>
+          <t>570638</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>98,29%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>97,16%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>99,07%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>297007</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>278975</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>942</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>575983</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16075</t>
+          <t>11094</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9961</t>
+          <t>6315</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24771</t>
+          <t>17798</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>42580</t>
+          <t>22011</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>34259</t>
+          <t>15585</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>52539</t>
+          <t>29545</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>13,35%</t>
+          <t>8,66%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>11,63%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>58656</t>
+          <t>33105</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>47857</t>
+          <t>24905</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>71763</t>
+          <t>42815</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>10,91%</t>
+          <t>8,76%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>353</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>323054</t>
+          <t>223606</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>314358</t>
+          <t>216902</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>329168</t>
+          <t>228385</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,7%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>378</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>276314</t>
+          <t>232085</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>266355</t>
+          <t>224551</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>284635</t>
+          <t>238511</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>86,65%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>83,52%</t>
+          <t>88,37%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>869</t>
+          <t>731</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>599368</t>
+          <t>455691</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>586261</t>
+          <t>445981</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>610167</t>
+          <t>463891</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>89,09%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>92,73%</t>
+          <t>94,9%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>370</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>339129</t>
+          <t>234700</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>418</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>254096</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>964</t>
+          <t>788</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>658024</t>
+          <t>488796</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19386</t>
+          <t>9720</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>13420</t>
+          <t>6603</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26139</t>
+          <t>13549</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>7,36%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21348</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>16823</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>27140</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>11,31%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>14,38%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
           <t>95</t>
         </is>
       </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>49160</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>12820</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>95701</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>10,86%</t>
-        </is>
-      </c>
-      <c r="O19" s="2" t="inlineStr">
-        <is>
-          <t>2,83%</t>
-        </is>
-      </c>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>21,14%</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>68547</t>
+          <t>31069</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>26210</t>
+          <t>25168</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>105378</t>
+          <t>37753</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>10,13%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>537</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>188698</t>
+          <t>174328</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>181945</t>
+          <t>170499</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>194664</t>
+          <t>177445</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>90,68%</t>
+          <t>94,72%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>424</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>403482</t>
+          <t>167326</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>356941</t>
+          <t>161534</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>439822</t>
+          <t>171851</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>88,69%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>78,86%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>91,08%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>592180</t>
+          <t>341654</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>555349</t>
+          <t>334970</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>634517</t>
+          <t>347555</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>89,87%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>93,25%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>570</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>208084</t>
+          <t>184048</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>486</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>188674</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660727</t>
+          <t>372723</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5775,107 +5775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>24768</t>
+          <t>16808</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>17872</t>
+          <t>12970</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32539</t>
+          <t>20958</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>73277</t>
+          <t>50734</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>63051</t>
+          <t>43240</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>84361</t>
+          <t>58231</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>36,11%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>197</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>98045</t>
+          <t>67542</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>85086</t>
+          <t>58310</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>110788</t>
+          <t>75900</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>25,44%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>28,75%</t>
+          <t>21,18%</t>
         </is>
       </c>
     </row>
@@ -5888,107 +5888,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>127007</t>
+          <t>129725</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>119236</t>
+          <t>125575</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>133903</t>
+          <t>133563</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>88,53%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>85,7%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>88,22%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>160327</t>
+          <t>161086</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>149243</t>
+          <t>153589</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>170553</t>
+          <t>168580</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>76,05%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>63,89%</t>
+          <t>72,51%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>73,01%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>812</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>287334</t>
+          <t>290811</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>274591</t>
+          <t>282453</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>300293</t>
+          <t>300043</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>74,56%</t>
+          <t>81,15%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>71,25%</t>
+          <t>78,82%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>77,92%</t>
+          <t>83,73%</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>481</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>146533</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6036,22 +6036,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>528</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>233604</t>
+          <t>211820</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6071,22 +6071,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>1009</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>385379</t>
+          <t>358353</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6118,107 +6118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>78561</t>
+          <t>44809</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>53773</t>
+          <t>36213</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>97502</t>
+          <t>54443</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>262</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>204932</t>
+          <t>109737</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>142543</t>
+          <t>96512</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>238249</t>
+          <t>124761</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>7,02%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>10,68%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>387</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>283493</t>
+          <t>154546</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>226505</t>
+          <t>139811</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>325252</t>
+          <t>172613</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>5,7%</t>
         </is>
       </c>
     </row>
@@ -6231,107 +6231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>2734</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2023964</t>
+          <t>1418177</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2005023</t>
+          <t>1408543</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2048752</t>
+          <t>1426773</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,26%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2643</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2026404</t>
+          <t>1454400</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1993087</t>
+          <t>1439376</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2088793</t>
+          <t>1467625</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>92,98%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>93,83%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4430</t>
+          <t>5352</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4050368</t>
+          <t>2872576</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4008609</t>
+          <t>2854509</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4107356</t>
+          <t>2887311</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>94,89%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>95,38%</t>
         </is>
       </c>
     </row>
@@ -6344,22 +6344,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>2859</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2102525</t>
+          <t>1462986</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6379,22 +6379,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>2880</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231336</t>
+          <t>1564137</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6414,22 +6414,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4905</t>
+          <t>5739</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4333861</t>
+          <t>3027122</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos) en C.Valenciana (tasa de respuesta: 99,74%)</t>
+          <t>Polimedicación (5 o más medicamentos) en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6704,107 +6704,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>847</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2962</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="S4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="T4" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
+      <c r="U4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O4" s="2" t="inlineStr">
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
+      <c r="W4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>847</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>2708</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>0,25%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
         </is>
       </c>
     </row>
@@ -6817,107 +6817,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>169324</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>167209</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>98,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66242</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>270</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>170442</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>143123</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="M5" s="2" t="inlineStr">
+      <c r="T5" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="N5" s="2" t="inlineStr">
+      <c r="U5" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="O5" s="2" t="inlineStr">
+      <c r="V5" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="W5" s="2" t="inlineStr">
         <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>339766</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>337905</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>340613</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>99,75%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>99,2%</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -6930,22 +6930,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>170171</t>
+          <t>76881</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -6965,22 +6965,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>170442</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -7000,22 +7000,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>724</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>340613</t>
+          <t>143123</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -7047,107 +7047,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>900</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>3371</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>662</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>1,85%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2383</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>602</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>5801</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>1,13%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>0,28%</t>
-        </is>
-      </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3283</t>
+          <t>115</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>6985</t>
+          <t>653</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>0,46%</t>
         </is>
       </c>
     </row>
@@ -7160,107 +7160,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>181313</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>178842</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>67933</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>67386</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>68048</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>99,83%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>99,03%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>311</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>209095</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>205677</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>210876</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>98,87%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>97,26%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>99,72%</t>
-        </is>
-      </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>598</t>
+          <t>763</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>390407</t>
+          <t>142916</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>386705</t>
+          <t>142378</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>392267</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,17%</t>
+          <t>99,92%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>99,54%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -7273,22 +7273,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>182213</t>
+          <t>74983</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -7308,22 +7308,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>211478</t>
+          <t>68048</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -7343,22 +7343,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>764</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>393690</t>
+          <t>143031</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -7395,102 +7395,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>594</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>174</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5499</t>
+          <t>1657</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7252</t>
+          <t>1501</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3612</t>
+          <t>762</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13227</t>
+          <t>2712</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>8831</t>
+          <t>2094</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15110</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -7503,107 +7503,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>565</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>246735</t>
+          <t>103366</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>242814</t>
+          <t>102303</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>247992</t>
+          <t>103786</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,36%</t>
+          <t>99,43%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,79%</t>
+          <t>98,41%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,87%</t>
+          <t>99,83%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>570</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>241399</t>
+          <t>109214</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>235424</t>
+          <t>108003</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>245039</t>
+          <t>109953</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,08%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>97,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>99,31%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>784</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>488133</t>
+          <t>212581</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>481854</t>
+          <t>211082</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>492275</t>
+          <t>213547</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>99,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>98,33%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -7616,22 +7616,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>568</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>248313</t>
+          <t>103960</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -7651,22 +7651,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>580</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>248651</t>
+          <t>110715</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -7686,22 +7686,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>496964</t>
+          <t>214675</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -7733,107 +7733,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3862</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8233</t>
+          <t>3574</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6009</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>1458</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10691</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>28</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>9871</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>5345</t>
+          <t>3080</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>16342</t>
+          <t>6733</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>2,26%</t>
         </is>
       </c>
     </row>
@@ -7846,107 +7846,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>792</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>293145</t>
+          <t>142810</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>288774</t>
+          <t>141204</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>295700</t>
+          <t>143718</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>98,7%</t>
+          <t>98,64%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>97,23%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,56%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>795</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>272966</t>
+          <t>149944</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>268284</t>
+          <t>148444</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>276148</t>
+          <t>151086</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,85%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>99,04%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>926</t>
+          <t>1587</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>566112</t>
+          <t>292753</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>559641</t>
+          <t>290588</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>570638</t>
+          <t>294241</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>98,29%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>97,16%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,07%</t>
+          <t>98,96%</t>
         </is>
       </c>
     </row>
@@ -7959,22 +7959,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>803</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>297007</t>
+          <t>144778</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -7994,22 +7994,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>278975</t>
+          <t>152544</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -8029,22 +8029,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>1615</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>575983</t>
+          <t>297321</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -8076,107 +8076,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11094</t>
+          <t>8063</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6315</t>
+          <t>6139</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>10972</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6,22%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6259</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>4435</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8804</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4,12%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,92%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>14322</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>11325</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
           <t>17798</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>4,73%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,69%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>7,58%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>22011</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>15585</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>29545</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>8,66%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>6,13%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>11,63%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>33105</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>24905</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>42815</t>
-        </is>
-      </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -8189,107 +8189,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>687</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>223606</t>
+          <t>121519</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>216902</t>
+          <t>118610</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>228385</t>
+          <t>123443</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>95,27%</t>
+          <t>93,78%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>91,53%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>95,26%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>823</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>232085</t>
+          <t>145656</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>224551</t>
+          <t>143111</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>238511</t>
+          <t>147480</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>88,37%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>97,08%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>1510</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>455691</t>
+          <t>267176</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>445981</t>
+          <t>263700</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>463891</t>
+          <t>270173</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,9%</t>
+          <t>95,98%</t>
         </is>
       </c>
     </row>
@@ -8302,22 +8302,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>733</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>234700</t>
+          <t>129582</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -8337,22 +8337,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>859</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>254096</t>
+          <t>151915</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -8372,22 +8372,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>788</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>488796</t>
+          <t>281498</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -8419,37 +8419,37 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9720</t>
+          <t>12354</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6603</t>
+          <t>9598</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13549</t>
+          <t>15520</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>11,83%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -8459,67 +8459,67 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21348</t>
+          <t>10485</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>16823</t>
+          <t>8105</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>27140</t>
+          <t>13369</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>131</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>31069</t>
+          <t>22839</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>25168</t>
+          <t>19411</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>37753</t>
+          <t>26902</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>10,37%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>12,21%</t>
         </is>
       </c>
     </row>
@@ -8532,107 +8532,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>577</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>174328</t>
+          <t>92112</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>170499</t>
+          <t>88946</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>177445</t>
+          <t>94868</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>92,64%</t>
+          <t>85,14%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>96,41%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>641</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>167326</t>
+          <t>105295</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>161534</t>
+          <t>102411</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>171851</t>
+          <t>107675</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>88,69%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>91,08%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>341654</t>
+          <t>197407</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>334970</t>
+          <t>193344</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>347555</t>
+          <t>200835</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>89,63%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>91,19%</t>
         </is>
       </c>
     </row>
@@ -8645,22 +8645,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>184048</t>
+          <t>104466</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -8680,22 +8680,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>703</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>188674</t>
+          <t>115780</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -8715,22 +8715,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1056</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>372723</t>
+          <t>220246</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -8762,107 +8762,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>16808</t>
+          <t>19393</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>12970</t>
+          <t>16455</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20958</t>
+          <t>23042</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>25,83%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>168</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>50734</t>
+          <t>26997</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>43240</t>
+          <t>23064</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>58231</t>
+          <t>30892</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>23,95%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>27,49%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>292</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>67542</t>
+          <t>46390</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>58310</t>
+          <t>41776</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>75900</t>
+          <t>51601</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>18,85%</t>
+          <t>20,94%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>18,86%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>21,18%</t>
+          <t>23,29%</t>
         </is>
       </c>
     </row>
@@ -8875,107 +8875,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>431</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>129725</t>
+          <t>69830</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>125575</t>
+          <t>66181</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>133563</t>
+          <t>72768</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>74,17%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>638</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>161086</t>
+          <t>105315</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>153589</t>
+          <t>101420</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>168580</t>
+          <t>109248</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>76,05%</t>
+          <t>79,6%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>72,51%</t>
+          <t>76,65%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>290811</t>
+          <t>175145</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>282453</t>
+          <t>169934</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>300043</t>
+          <t>179759</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>81,15%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>78,82%</t>
+          <t>76,71%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>83,73%</t>
+          <t>81,14%</t>
         </is>
       </c>
     </row>
@@ -8988,22 +8988,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>555</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146533</t>
+          <t>89223</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -9023,22 +9023,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>806</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>211820</t>
+          <t>132312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -9058,22 +9058,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1009</t>
+          <t>1361</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>358353</t>
+          <t>221535</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -9105,107 +9105,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>253</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>44809</t>
+          <t>42371</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>36213</t>
+          <t>37199</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>54443</t>
+          <t>47391</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>294</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>109737</t>
+          <t>47957</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>96512</t>
+          <t>42629</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>124761</t>
+          <t>53823</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>5,34%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>547</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>154546</t>
+          <t>90328</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>139811</t>
+          <t>82367</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>172613</t>
+          <t>97875</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>6,43%</t>
         </is>
       </c>
     </row>
@@ -9218,107 +9218,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1418177</t>
+          <t>681501</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1408543</t>
+          <t>676481</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>1426773</t>
+          <t>686673</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>94,86%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>4181</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1454400</t>
+          <t>749599</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1439376</t>
+          <t>743733</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1467625</t>
+          <t>754927</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,83%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5352</t>
+          <t>8006</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>2872576</t>
+          <t>1431101</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2854509</t>
+          <t>1423554</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>2887311</t>
+          <t>1439062</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>93,57%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>94,59%</t>
         </is>
       </c>
     </row>
@@ -9331,22 +9331,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1462986</t>
+          <t>723872</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -9366,22 +9366,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>4475</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>1564137</t>
+          <t>797556</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -9401,22 +9401,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>8553</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>3027122</t>
+          <t>1521429</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
